--- a/results/OverleafData.xlsx
+++ b/results/OverleafData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nils\Documents\GitHub\bgpsim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46FB6ED-F044-4475-898C-5B603A1692F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEDFC1-BDE2-4C8E-BA93-4E9FD77D2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13776" activeTab="1" xr2:uid="{584EA00D-E2B7-4880-A1DD-926FB2487EA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{584EA00D-E2B7-4880-A1DD-926FB2487EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="red_otc" sheetId="2" r:id="rId1"/>
@@ -10167,8 +10167,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D038D-C3CD-4878-B72B-B64B03A7FD94}">
   <dimension ref="A1:T758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F17" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G50" sqref="G50:J70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24229,8 +24229,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>

--- a/results/OverleafData.xlsx
+++ b/results/OverleafData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nils\Documents\GitHub\bgpsim\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBEDFC1-BDE2-4C8E-BA93-4E9FD77D2DF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82B8F0B5-FB9E-4BF8-B606-8C0F5EAFEF6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{584EA00D-E2B7-4880-A1DD-926FB2487EA2}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{584EA00D-E2B7-4880-A1DD-926FB2487EA2}"/>
   </bookViews>
   <sheets>
     <sheet name="red_otc" sheetId="2" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="32">
   <si>
     <t>Using algorithm:  OTC</t>
   </si>
@@ -574,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3EA2EBBD-616B-442A-AE2D-54A28B438390}">
   <dimension ref="A1:X548"/>
   <sheetViews>
-    <sheetView topLeftCell="A35" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49:S70"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -586,7 +586,7 @@
     <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -611,6 +611,9 @@
       <c r="J1" t="s">
         <v>6</v>
       </c>
+      <c r="M1" t="s">
+        <v>5</v>
+      </c>
       <c r="N1" t="s">
         <v>8</v>
       </c>
@@ -623,8 +626,23 @@
       <c r="Q1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -664,8 +682,23 @@
       <c r="Q2">
         <v>1675.9349999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V2">
+        <v>1781.421</v>
+      </c>
+      <c r="W2">
+        <v>1752.6189999999999</v>
+      </c>
+      <c r="X2">
+        <v>1675.9349999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>5</v>
       </c>
@@ -705,8 +738,23 @@
       <c r="Q3">
         <v>1545.0409999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T3">
+        <v>5</v>
+      </c>
+      <c r="U3">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V3">
+        <v>1774.54</v>
+      </c>
+      <c r="W3">
+        <v>1628.521</v>
+      </c>
+      <c r="X3">
+        <v>1636.951</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10</v>
       </c>
@@ -746,8 +794,23 @@
       <c r="Q4">
         <v>1342.3610000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T4">
+        <v>10</v>
+      </c>
+      <c r="U4">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V4">
+        <v>1771.683</v>
+      </c>
+      <c r="W4">
+        <v>1518.8</v>
+      </c>
+      <c r="X4">
+        <v>1598.48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>15</v>
       </c>
@@ -787,8 +850,23 @@
       <c r="Q5">
         <v>1158.3969999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T5">
+        <v>15</v>
+      </c>
+      <c r="U5">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V5">
+        <v>1769.596</v>
+      </c>
+      <c r="W5">
+        <v>1410.856</v>
+      </c>
+      <c r="X5">
+        <v>1560.1130000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>20</v>
       </c>
@@ -828,8 +906,23 @@
       <c r="Q6">
         <v>969.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T6">
+        <v>20</v>
+      </c>
+      <c r="U6">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V6">
+        <v>1765.336</v>
+      </c>
+      <c r="W6">
+        <v>1314.623</v>
+      </c>
+      <c r="X6">
+        <v>1520.548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>25</v>
       </c>
@@ -869,8 +962,23 @@
       <c r="Q7">
         <v>912.86199999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T7">
+        <v>25</v>
+      </c>
+      <c r="U7">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V7">
+        <v>1751.0250000000001</v>
+      </c>
+      <c r="W7">
+        <v>1124.376</v>
+      </c>
+      <c r="X7">
+        <v>1482.499</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>30</v>
       </c>
@@ -910,8 +1018,23 @@
       <c r="Q8">
         <v>815.15200000000004</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T8">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V8">
+        <v>1756.056</v>
+      </c>
+      <c r="W8">
+        <v>1040.848</v>
+      </c>
+      <c r="X8">
+        <v>1442.96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>35</v>
       </c>
@@ -951,8 +1074,23 @@
       <c r="Q9">
         <v>598.75900000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T9">
+        <v>35</v>
+      </c>
+      <c r="U9">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V9">
+        <v>1752.1369999999999</v>
+      </c>
+      <c r="W9">
+        <v>912.82100000000003</v>
+      </c>
+      <c r="X9">
+        <v>1404.867</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>40</v>
       </c>
@@ -992,8 +1130,23 @@
       <c r="Q10">
         <v>594.077</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T10">
+        <v>40</v>
+      </c>
+      <c r="U10">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V10">
+        <v>1745.393</v>
+      </c>
+      <c r="W10">
+        <v>759.61099999999999</v>
+      </c>
+      <c r="X10">
+        <v>1365.8920000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>45</v>
       </c>
@@ -1033,8 +1186,23 @@
       <c r="Q11">
         <v>489.28</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T11">
+        <v>45</v>
+      </c>
+      <c r="U11">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V11">
+        <v>1732.9939999999999</v>
+      </c>
+      <c r="W11">
+        <v>684.82899999999995</v>
+      </c>
+      <c r="X11">
+        <v>1327.6279999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>50</v>
       </c>
@@ -1074,8 +1242,23 @@
       <c r="Q12">
         <v>373.15899999999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T12">
+        <v>50</v>
+      </c>
+      <c r="U12">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V12">
+        <v>1740.5329999999999</v>
+      </c>
+      <c r="W12">
+        <v>666.39499999999998</v>
+      </c>
+      <c r="X12">
+        <v>1287.453</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>55</v>
       </c>
@@ -1115,8 +1298,23 @@
       <c r="Q13">
         <v>330.43799999999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T13">
+        <v>55</v>
+      </c>
+      <c r="U13">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V13">
+        <v>1733.5419999999999</v>
+      </c>
+      <c r="W13">
+        <v>526.42499999999995</v>
+      </c>
+      <c r="X13">
+        <v>1249.799</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>60</v>
       </c>
@@ -1156,8 +1354,23 @@
       <c r="Q14">
         <v>309.09300000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T14">
+        <v>60</v>
+      </c>
+      <c r="U14">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V14">
+        <v>1718.4770000000001</v>
+      </c>
+      <c r="W14">
+        <v>418.29500000000002</v>
+      </c>
+      <c r="X14">
+        <v>1212.0809999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>65</v>
       </c>
@@ -1197,8 +1410,23 @@
       <c r="Q15">
         <v>182.50700000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="T15">
+        <v>65</v>
+      </c>
+      <c r="U15">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V15">
+        <v>1700.3340000000001</v>
+      </c>
+      <c r="W15">
+        <v>349.065</v>
+      </c>
+      <c r="X15">
+        <v>1171.818</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>70</v>
       </c>
@@ -1237,6 +1465,21 @@
       </c>
       <c r="Q16">
         <v>159.327</v>
+      </c>
+      <c r="T16">
+        <v>70</v>
+      </c>
+      <c r="U16">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V16">
+        <v>1720.6980000000001</v>
+      </c>
+      <c r="W16">
+        <v>392.02100000000002</v>
+      </c>
+      <c r="X16">
+        <v>1133.202</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
@@ -1279,6 +1522,21 @@
       <c r="Q17">
         <v>163.07599999999999</v>
       </c>
+      <c r="T17">
+        <v>75</v>
+      </c>
+      <c r="U17">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V17">
+        <v>1714.559</v>
+      </c>
+      <c r="W17">
+        <v>322.68799999999999</v>
+      </c>
+      <c r="X17">
+        <v>1093.8689999999999</v>
+      </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A18">
@@ -1320,6 +1578,21 @@
       <c r="Q18">
         <v>61.801000000000002</v>
       </c>
+      <c r="T18">
+        <v>80</v>
+      </c>
+      <c r="U18">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V18">
+        <v>1710.5730000000001</v>
+      </c>
+      <c r="W18">
+        <v>284.95699999999999</v>
+      </c>
+      <c r="X18">
+        <v>1055.79</v>
+      </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A19">
@@ -1361,6 +1634,21 @@
       <c r="Q19">
         <v>86.248000000000005</v>
       </c>
+      <c r="T19">
+        <v>85</v>
+      </c>
+      <c r="U19">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V19">
+        <v>1710.894</v>
+      </c>
+      <c r="W19">
+        <v>181.30799999999999</v>
+      </c>
+      <c r="X19">
+        <v>1016.91</v>
+      </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A20">
@@ -1402,6 +1690,21 @@
       <c r="Q20">
         <v>23.202000000000002</v>
       </c>
+      <c r="T20">
+        <v>90</v>
+      </c>
+      <c r="U20">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V20">
+        <v>1705.3119999999999</v>
+      </c>
+      <c r="W20">
+        <v>176.16200000000001</v>
+      </c>
+      <c r="X20">
+        <v>977.69299999999998</v>
+      </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A21">
@@ -1443,6 +1746,21 @@
       <c r="Q21">
         <v>25.666</v>
       </c>
+      <c r="T21">
+        <v>95</v>
+      </c>
+      <c r="U21">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V21">
+        <v>1688.7429999999999</v>
+      </c>
+      <c r="W21">
+        <v>258.19799999999998</v>
+      </c>
+      <c r="X21">
+        <v>938.99400000000003</v>
+      </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A22">
@@ -1483,6 +1801,21 @@
       </c>
       <c r="Q22">
         <v>1.9179999999999999</v>
+      </c>
+      <c r="T22">
+        <v>100</v>
+      </c>
+      <c r="U22">
+        <v>1782.0840000000001</v>
+      </c>
+      <c r="V22">
+        <v>1667.758</v>
+      </c>
+      <c r="W22">
+        <v>202.67500000000001</v>
+      </c>
+      <c r="X22">
+        <v>900.38900000000001</v>
       </c>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
@@ -10157,8 +10490,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -10167,7 +10501,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F3D038D-C3CD-4878-B72B-B64B03A7FD94}">
   <dimension ref="A1:T758"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G50" sqref="G50:J70"/>
     </sheetView>
   </sheetViews>
